--- a/Pkg_Checker/Misc/annot_stat.xlsx
+++ b/Pkg_Checker/Misc/annot_stat.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Projects\Checker\Pkg_Checker\Misc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11055"/>
   </bookViews>
@@ -596,21 +601,271 @@
     <t>Sticky note has no IRT value. This can be the basis to distinguish sticky note from its reply.</t>
   </si>
   <si>
-    <t>定义：一个 annotation 组指一个 sticky note 及其 reply 和相关联的 attributes.        
-P 值指的是文档中的一个位置；不同的 annotation 组可能有相同的 P 值，同一个 annotation 组的 P 值是相同的。
-Attributes 的 IRT 值位于本 annotation 组其他元素的 Number 值集合中。
-结合以上两点可定位出一个 annotation 组。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>定义：一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>组指一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sticky note </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reply </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>和相关联的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> attributes.        
+P </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>值指的是文档中的一个位置；不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>组可能有相同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> P </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>值，同一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>组的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> P </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">值是相同的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Attributes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IRT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>值位于本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>组其他元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>值集合中。
+结合以上两点可定位出一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>组。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -620,28 +875,43 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -692,24 +962,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -718,6 +990,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -768,7 +1048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +1080,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +1115,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,1897 +1291,1897 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.75" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="7.75" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3">
         <v>4118</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3">
         <v>6181</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3">
         <v>6337</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3">
         <v>6339</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3">
         <v>6341</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3">
         <v>6343</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3">
         <v>6345</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3">
         <v>6347</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="M9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="3">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3">
         <v>6349</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3">
         <v>6351</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="3">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3">
         <v>6353</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="M12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3">
         <v>6355</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3">
         <v>6357</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="M14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3">
         <v>6383</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="3">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3">
         <v>6385</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="3">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="3">
         <v>6389</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3">
         <v>6393</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="3">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3">
         <v>6397</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3">
         <v>13947</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="3">
         <v>14353</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
         <v>14358</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="M22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3">
         <v>14551</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="3">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3">
         <v>14553</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="3">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="3">
         <v>14555</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="M25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="3">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3">
         <v>14557</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="3">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3">
         <v>14559</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="3">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="3">
         <v>14935</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="3">
         <v>14158</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="3">
         <v>14160</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="3">
         <v>14162</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="3">
         <v>14164</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33">
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="3">
         <v>14166</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>28</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="3">
         <v>14168</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>28</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="3">
         <v>14170</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="3">
         <v>14345</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="3">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="3">
         <v>14535</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="3">
+        <v>30</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="3">
         <v>14537</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="3">
         <v>14539</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="3">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="3">
         <v>14541</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="3">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="3">
         <v>14543</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C42">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="3">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42">
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="3">
         <v>14545</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C43">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="3">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="3">
         <v>14547</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C44">
-        <v>30</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="3">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44">
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="3">
         <v>14549</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="20.25" thickBot="1">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickTop="1">
-      <c r="B47" s="11" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="B48" s="11" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="2:13" ht="63" customHeight="1">
-      <c r="B49" s="9" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2908,18 +3190,21 @@
     <mergeCell ref="B48:M48"/>
     <mergeCell ref="B49:M49"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>